--- a/biology/Zoologie/Fauvette_de_Moltoni/Fauvette_de_Moltoni.xlsx
+++ b/biology/Zoologie/Fauvette_de_Moltoni/Fauvette_de_Moltoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fauvette de Moltoni (Curruca subalpina) est une espèce d'oiseaux de la famille des Sylviidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom commémore l'ornithologue italien Edgardo Moltoni (1896-1980).
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est très semblable à la Fauvette passerinette (Curruca cantillans), mais s'en distingue notamment par son chant (s'agissant d'un trille assez bref : trrr ou trrri), ainsi que par la couleur mâle du dessous rose saumon et non roux orange. 
 </t>
@@ -573,9 +589,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son aire s'étend à travers la Corse, la Sardaigne, le nord-ouest de l'Italie et régions françaises avoisinantes, ainsi que certaines îles de l'archipel toscan et des îles Baléares ; il hiverne en Algérie et au Sahel[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son aire s'étend à travers la Corse, la Sardaigne, le nord-ouest de l'Italie et régions françaises avoisinantes, ainsi que certaines îles de l'archipel toscan et des îles Baléares ; il hiverne en Algérie et au Sahel.
 </t>
         </is>
       </c>
@@ -604,10 +622,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette fauvette a longtemps été considérée comme une sous-espèce de la Fauvette passerinette. Une étude phylogénique menée par Brambilla et al. (2008) montre que la sous-espèce moltonii (renommée depuis en subalpina) a des vocalisations différentes et est nettement distincte génétiquement. Le Congrès ornithologique international (classification 2.2, 2009) l'élève donc au rang d'espèce.
-La fauvette de Moltoni faisait anciennement partie du genre Sylvia, mais a depuis été reclassée dans le genre Curruca après que celui-ci a été séparé de Sylvia[2].
+La fauvette de Moltoni faisait anciennement partie du genre Sylvia, mais a depuis été reclassée dans le genre Curruca après que celui-ci a été séparé de Sylvia.
 </t>
         </is>
       </c>
